--- a/UPCSPlatForm/CourseInfoExcel.xlsx
+++ b/UPCSPlatForm/CourseInfoExcel.xlsx
@@ -424,50 +424,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>课程号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>课程名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>学分</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>教师名</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>职称</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>授课学院</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>领域</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>学年</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>学期</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>上课时间地点</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
+        <is>
+          <t>学时安排</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
